--- a/data/pv_curves/pv_shift_visuals_rehydratedvsnon_new.xlsx
+++ b/data/pv_curves/pv_shift_visuals_rehydratedvsnon_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leeanderegg/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/github/SHIFT/data/pv_curves/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FE394C-3472-6347-9643-7D4C4ACD9CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAFBD98-8F88-AC47-AECD-77C008A13822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="460" windowWidth="27240" windowHeight="16440" activeTab="2" xr2:uid="{54547111-C80E-5646-BF87-B463686FBEFF}"/>
+    <workbookView xWindow="1560" yWindow="760" windowWidth="27240" windowHeight="16440" activeTab="2" xr2:uid="{54547111-C80E-5646-BF87-B463686FBEFF}"/>
   </bookViews>
   <sheets>
     <sheet name="MD rehydrated" sheetId="1" r:id="rId1"/>
@@ -23841,7 +23841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D1539A-0F49-634C-900C-A6D8A6F33A94}">
   <dimension ref="A2:W49"/>
   <sheetViews>
-    <sheetView topLeftCell="M21" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="M2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
@@ -26328,7 +26328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE34C4CD-48FE-5F47-BF15-DBBDF0ED77E2}">
   <dimension ref="A2:W112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="Y67" sqref="Y67"/>
     </sheetView>
   </sheetViews>
@@ -28079,18 +28079,18 @@
         <v>-0.13100000000000001</v>
       </c>
       <c r="E51">
-        <f t="shared" ref="E51:E71" si="14">-1/D51</f>
+        <f t="shared" ref="E51:E70" si="14">-1/D51</f>
         <v>7.6335877862595414</v>
       </c>
       <c r="F51" s="2">
         <v>0.21149999999999999</v>
       </c>
       <c r="G51">
-        <f t="shared" ref="G51:G71" si="15">((F51)/$F$50)*100</f>
+        <f t="shared" ref="G51:G70" si="15">((F51)/$F$50)*100</f>
         <v>99.670122525918941</v>
       </c>
       <c r="H51">
-        <f t="shared" ref="H51:H71" si="16">100-G51</f>
+        <f t="shared" ref="H51:H70" si="16">100-G51</f>
         <v>0.32987747408105861</v>
       </c>
       <c r="Q51" s="3"/>
@@ -28098,18 +28098,18 @@
         <v>-6.2E-2</v>
       </c>
       <c r="T51">
-        <f t="shared" ref="T51:T71" si="17">-1/S51</f>
+        <f t="shared" ref="T51:T70" si="17">-1/S51</f>
         <v>16.129032258064516</v>
       </c>
       <c r="U51" s="2">
         <v>0.47710000000000002</v>
       </c>
       <c r="V51">
-        <f t="shared" ref="V51:V71" si="18">((U51)/$U$50)*100</f>
+        <f t="shared" ref="V51:V70" si="18">((U51)/$U$50)*100</f>
         <v>99.520233625365051</v>
       </c>
       <c r="W51">
-        <f t="shared" ref="W51:W71" si="19">100-V51</f>
+        <f t="shared" ref="W51:W70" si="19">100-V51</f>
         <v>0.47976637463494853</v>
       </c>
     </row>
@@ -29205,11 +29205,11 @@
       </c>
       <c r="F85" s="2"/>
       <c r="G85">
-        <f t="shared" ref="G74:G88" si="26">((F85)/$F$50)*100</f>
+        <f t="shared" ref="G85:G88" si="26">((F85)/$F$50)*100</f>
         <v>0</v>
       </c>
       <c r="H85">
-        <f t="shared" ref="H74:H88" si="27">100-G85</f>
+        <f t="shared" ref="H85:H88" si="27">100-G85</f>
         <v>100</v>
       </c>
       <c r="S85" s="2"/>
